--- a/deepgenesis/data/cancer_Symptons.xlsx
+++ b/deepgenesis/data/cancer_Symptons.xlsx
@@ -1,21 +1,323 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+  <si>
+    <t>abdominal distention</t>
+  </si>
+  <si>
+    <t>abdominal mass</t>
+  </si>
+  <si>
+    <t>abdominal pain</t>
+  </si>
+  <si>
+    <t>amenorrhea</t>
+  </si>
+  <si>
+    <t>anorexia</t>
+  </si>
+  <si>
+    <t>arthritis</t>
+  </si>
+  <si>
+    <t>ataxia</t>
+  </si>
+  <si>
+    <t>back pain</t>
+  </si>
+  <si>
+    <t>bone pain</t>
+  </si>
+  <si>
+    <t>bruising</t>
+  </si>
+  <si>
+    <t>bulging fontanelle</t>
+  </si>
+  <si>
+    <t>chronic ear discharge</t>
+  </si>
+  <si>
+    <t>compression of local structures</t>
+  </si>
+  <si>
+    <t>constipation</t>
+  </si>
+  <si>
+    <t>cranial nerve palsies</t>
+  </si>
+  <si>
+    <t>Dermatologic manifestations</t>
+  </si>
+  <si>
+    <t>developmental delay or regression</t>
+  </si>
+  <si>
+    <t>diabetes insipidus</t>
+  </si>
+  <si>
+    <t>diplopia</t>
+  </si>
+  <si>
+    <t>dysphagia</t>
+  </si>
+  <si>
+    <t>ecchymoses</t>
+  </si>
+  <si>
+    <t>enuresis</t>
+  </si>
+  <si>
+    <t>epistaxis</t>
+  </si>
+  <si>
+    <t>failure to thrive</t>
+  </si>
+  <si>
+    <t>fatigue</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>gingival bleeding</t>
+  </si>
+  <si>
+    <t>headache</t>
+  </si>
+  <si>
+    <t>hematuria</t>
+  </si>
+  <si>
+    <t>hepatosplenomegaly</t>
+  </si>
+  <si>
+    <t>heterochromia of the iris</t>
+  </si>
+  <si>
+    <t>Horner syndrome</t>
+  </si>
+  <si>
+    <t>hypertension</t>
+  </si>
+  <si>
+    <t>increasing head circumference</t>
+  </si>
+  <si>
+    <t>irritability</t>
+  </si>
+  <si>
+    <t>kyphoscoliosis</t>
+  </si>
+  <si>
+    <t>leg weakness</t>
+  </si>
+  <si>
+    <t>Leukokoria</t>
+  </si>
+  <si>
+    <t>limp</t>
+  </si>
+  <si>
+    <t>Localized bone pain</t>
+  </si>
+  <si>
+    <t>lordosis</t>
+  </si>
+  <si>
+    <t>lymphadenopathy</t>
+  </si>
+  <si>
+    <t>malaise</t>
+  </si>
+  <si>
+    <t>Masses  on extremities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masses  on head </t>
+  </si>
+  <si>
+    <t>Masses  on neck</t>
+  </si>
+  <si>
+    <t>Masses  on trunk</t>
+  </si>
+  <si>
+    <t>motor and sensory signs</t>
+  </si>
+  <si>
+    <t>nasal obstruction</t>
+  </si>
+  <si>
+    <t>neurologic defecits</t>
+  </si>
+  <si>
+    <t>neurologic symptoms</t>
+  </si>
+  <si>
+    <t>night sweats</t>
+  </si>
+  <si>
+    <t>obstructive symptoms of the bowel and bladder</t>
+  </si>
+  <si>
+    <t>opsoclonus-myoclonus syndrome</t>
+  </si>
+  <si>
+    <t>otitis media</t>
+  </si>
+  <si>
+    <t>Pallor</t>
+  </si>
+  <si>
+    <t>Palpable mass</t>
+  </si>
+  <si>
+    <t>papilledema</t>
+  </si>
+  <si>
+    <t>pathological fracture</t>
+  </si>
+  <si>
+    <t>periorbital ecchymoses</t>
+  </si>
+  <si>
+    <t>personality and mood changes</t>
+  </si>
+  <si>
+    <t>petechiae</t>
+  </si>
+  <si>
+    <t>precocious puberty</t>
+  </si>
+  <si>
+    <t>prolonged fever</t>
+  </si>
+  <si>
+    <t>proptosis</t>
+  </si>
+  <si>
+    <t>rashes</t>
+  </si>
+  <si>
+    <t>respiratory symptoms</t>
+  </si>
+  <si>
+    <t>Scrotal swelling or mass</t>
+  </si>
+  <si>
+    <t>seizures</t>
+  </si>
+  <si>
+    <t>squint</t>
+  </si>
+  <si>
+    <t>subcutaneous nodules</t>
+  </si>
+  <si>
+    <t>swelling or deformity</t>
+  </si>
+  <si>
+    <t>swelling/bleeding gums</t>
+  </si>
+  <si>
+    <t>symptoms caused by pressure on adjacent structures</t>
+  </si>
+  <si>
+    <t>symptoms due to bone marrow infiltration</t>
+  </si>
+  <si>
+    <t>tinnitus</t>
+  </si>
+  <si>
+    <t>torticollis</t>
+  </si>
+  <si>
+    <t>trismus</t>
+  </si>
+  <si>
+    <t>unexplained deteriorating school performance</t>
+  </si>
+  <si>
+    <t>vaginal bleeding</t>
+  </si>
+  <si>
+    <t>vision loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visual disturbances </t>
+  </si>
+  <si>
+    <t>vomiting</t>
+  </si>
+  <si>
+    <t>weight loss</t>
+  </si>
+  <si>
+    <t>Central nervous system tumors</t>
+  </si>
+  <si>
+    <t>Ewing sarcoma</t>
+  </si>
+  <si>
+    <t>Germ cell tumors</t>
+  </si>
+  <si>
+    <t>Hepatic tumors</t>
+  </si>
+  <si>
+    <t>Histiocytosis</t>
+  </si>
+  <si>
+    <t>Leukemia</t>
+  </si>
+  <si>
+    <t>Lymphoma</t>
+  </si>
+  <si>
+    <t>Nasopharyngeal carcinoma</t>
+  </si>
+  <si>
+    <t>Neuroblastoma</t>
+  </si>
+  <si>
+    <t>Osteosarcoma</t>
+  </si>
+  <si>
+    <t>Renal tumors</t>
+  </si>
+  <si>
+    <t>Retinoblastoma</t>
+  </si>
+  <si>
+    <t>Soft tissue sarcomas</t>
+  </si>
+  <si>
+    <t>cancertype/symptoms</t>
+  </si>
+  <si>
+    <t>nausea</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,19 +346,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +447,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +655,3709 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
+      <selection activeCell="CG17" sqref="CG17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BZ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="2">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE13" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:87" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ14" s="2">
+        <v>1</v>
+      </c>
+      <c r="CA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/deepgenesis/data/cancer_Symptons.xlsx
+++ b/deepgenesis/data/cancer_Symptons.xlsx
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
-      <selection activeCell="CG17" sqref="CG17"/>
+    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:CI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
